--- a/DII 4.0 Evolution Rebuild 240604.xlsx
+++ b/DII 4.0 Evolution Rebuild 240604.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xniu02\Desktop\DII 4.0 Index Construction 240319\DII 4.0 Index Construction 240604 - all updates demand+innovation_add_ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xniu02\Desktop\DII 4.0 Index Construction 240319\DII 4.0 Index Construction 240610 - all updates - git - full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6AAF81-D671-4983-AE1F-312A6F137CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4832F7-0C7D-4837-B3CE-A0C3C913CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="-14535" windowWidth="24555" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="-15345" windowWidth="27795" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndicatorInfo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Drivers" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IndicatorInfo!$A$1:$Q$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IndicatorInfo!$A$1:$Q$184</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="N53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="P135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="511">
   <si>
     <t>Indicator</t>
   </si>
@@ -494,15 +494,9 @@
     <t>rtlpc</t>
   </si>
   <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
     <t>Ability to Adopt</t>
   </si>
   <si>
-    <t>adlrt</t>
-  </si>
-  <si>
     <t>Human Development Index</t>
   </si>
   <si>
@@ -660,18 +654,6 @@
   </si>
   <si>
     <t>bills_mbl</t>
-  </si>
-  <si>
-    <t>Received government transfers: through a mobile phone (% transfer recipients, age 15+)</t>
-  </si>
-  <si>
-    <t>gov_mbl</t>
-  </si>
-  <si>
-    <t>Sent or received domestic remittances: through a mobile phone (% senders and recipients, age 15+)</t>
-  </si>
-  <si>
-    <t>remits_mbl</t>
   </si>
   <si>
     <t>Possession of Laptop</t>
@@ -1977,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3466,7 +3448,7 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>93</v>
@@ -3481,7 +3463,7 @@
         <v>2023</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>91</v>
@@ -3496,7 +3478,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -3668,7 +3650,7 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>93</v>
@@ -3683,7 +3665,7 @@
         <v>2023</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>91</v>
@@ -3698,7 +3680,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -3770,7 +3752,7 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>93</v>
@@ -3785,7 +3767,7 @@
         <v>2023</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>91</v>
@@ -3800,7 +3782,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -4330,10 +4312,10 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>120</v>
@@ -4342,7 +4324,7 @@
         <v>121</v>
       </c>
       <c r="E44" s="4">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>138</v>
@@ -4354,13 +4336,13 @@
         <v>28</v>
       </c>
       <c r="I44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4">
         <v>1</v>
       </c>
       <c r="K44" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4">
         <v>1</v>
@@ -4387,7 +4369,7 @@
         <v>139</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>120</v>
@@ -4396,25 +4378,25 @@
         <v>121</v>
       </c>
       <c r="E45" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I45" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
       </c>
       <c r="K45" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L45" s="4">
         <v>1</v>
@@ -4424,8 +4406,12 @@
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
+      <c r="P45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -4440,11 +4426,11 @@
       <c r="A46" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>137</v>
+      <c r="B46" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>121</v>
@@ -4453,22 +4439,22 @@
         <v>2022</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I46" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
       </c>
       <c r="K46" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4">
         <v>1</v>
@@ -4478,12 +4464,8 @@
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
@@ -4496,40 +4478,40 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>146</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I47" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J47" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K47" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L47" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>29</v>
@@ -4550,13 +4532,13 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>121</v>
@@ -4565,22 +4547,22 @@
         <v>2021</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I48" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4">
         <v>0.75</v>
       </c>
       <c r="K48" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4">
         <v>0.75</v>
@@ -4607,10 +4589,10 @@
         <v>150</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>121</v>
@@ -4622,7 +4604,7 @@
         <v>151</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>28</v>
@@ -4661,42 +4643,38 @@
         <v>152</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E50" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H50" s="4"/>
       <c r="I50" s="4">
         <v>1</v>
       </c>
       <c r="J50" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K50" s="4">
-        <v>1</v>
-      </c>
-      <c r="L50" s="4">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N50" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -4712,42 +4690,50 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E51" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H51" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I51" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J51" s="4">
         <v>1</v>
       </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="K51" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
       <c r="M51" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O51" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
@@ -4762,22 +4748,22 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E52" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>80</v>
@@ -4786,13 +4772,13 @@
         <v>28</v>
       </c>
       <c r="I52" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4">
         <v>1</v>
       </c>
       <c r="K52" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L52" s="4">
         <v>1</v>
@@ -4800,11 +4786,11 @@
       <c r="M52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N52" s="4" t="s">
-        <v>161</v>
+      <c r="N52" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -4823,16 +4809,16 @@
         <v>162</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E53" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>163</v>
@@ -4859,10 +4845,10 @@
         <v>29</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -4878,13 +4864,13 @@
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>121</v>
@@ -4893,7 +4879,7 @@
         <v>2023</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>80</v>
@@ -4917,10 +4903,10 @@
         <v>29</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -4936,50 +4922,46 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E55" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I55" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J55" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K55" s="4">
         <v>1</v>
       </c>
       <c r="L55" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N55" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -4997,10 +4979,10 @@
         <v>170</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>121</v>
@@ -5012,7 +4994,7 @@
         <v>171</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>28</v>
@@ -5051,28 +5033,26 @@
         <v>172</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="4">
-        <v>2021</v>
-      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I57" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4">
         <v>0.75</v>
@@ -5105,10 +5085,10 @@
         <v>174</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>121</v>
@@ -5118,19 +5098,19 @@
         <v>175</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I58" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J58" s="4">
         <v>0.75</v>
       </c>
       <c r="K58" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L58" s="4">
         <v>0.75</v>
@@ -5157,10 +5137,10 @@
         <v>176</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>121</v>
@@ -5170,7 +5150,7 @@
         <v>177</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>28</v>
@@ -5182,7 +5162,7 @@
         <v>0.75</v>
       </c>
       <c r="K59" s="4">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L59" s="4">
         <v>0.75</v>
@@ -5209,38 +5189,34 @@
         <v>178</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4">
+        <v>2023</v>
+      </c>
       <c r="F60" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H60" s="4"/>
       <c r="I60" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J60" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K60" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="L60" s="4">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -5258,13 +5234,13 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>121</v>
@@ -5273,25 +5249,35 @@
         <v>2023</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I61" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J61" s="4">
         <v>1</v>
       </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="K61" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
       <c r="M61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
@@ -5306,19 +5292,19 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E62" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>185</v>
@@ -5330,13 +5316,13 @@
         <v>28</v>
       </c>
       <c r="I62" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J62" s="4">
         <v>1</v>
       </c>
       <c r="K62" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L62" s="4">
         <v>1</v>
@@ -5344,11 +5330,11 @@
       <c r="M62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N62" s="4" t="s">
-        <v>161</v>
+      <c r="N62" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
@@ -5367,22 +5353,20 @@
         <v>186</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="4">
-        <v>2022</v>
-      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>28</v>
@@ -5391,23 +5375,19 @@
         <v>1</v>
       </c>
       <c r="J63" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K63" s="4">
         <v>1</v>
       </c>
       <c r="L63" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N63" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
@@ -5425,10 +5405,10 @@
         <v>188</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>121</v>
@@ -5438,19 +5418,19 @@
         <v>189</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I64" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J64" s="4">
         <v>0.75</v>
       </c>
       <c r="K64" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L64" s="4">
         <v>0.75</v>
@@ -5477,35 +5457,37 @@
         <v>190</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4">
+        <v>2022</v>
+      </c>
       <c r="F65" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I65" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J65" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K65" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L65" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>29</v>
@@ -5526,38 +5508,40 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4">
+        <v>2022</v>
+      </c>
       <c r="F66" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K66" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L66" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>29</v>
@@ -5578,38 +5562,40 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4">
+        <v>2022</v>
+      </c>
       <c r="F67" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I67" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J67" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K67" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L67" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>29</v>
@@ -5630,13 +5616,13 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>121</v>
@@ -5687,10 +5673,10 @@
         <v>200</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>121</v>
@@ -5708,16 +5694,16 @@
         <v>28</v>
       </c>
       <c r="I69" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J69" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K69" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L69" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>29</v>
@@ -5741,40 +5727,40 @@
         <v>202</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E70" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>203</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I70" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J70" s="4">
         <v>1</v>
       </c>
       <c r="K70" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L70" s="4">
         <v>1</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -5795,10 +5781,10 @@
         <v>204</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>121</v>
@@ -5807,7 +5793,7 @@
         <v>2022</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>80</v>
@@ -5846,13 +5832,13 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>121</v>
@@ -5861,7 +5847,7 @@
         <v>2022</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>80</v>
@@ -5870,16 +5856,16 @@
         <v>28</v>
       </c>
       <c r="I72" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J72" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K72" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L72" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>29</v>
@@ -5900,43 +5886,43 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E73" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I73" s="4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J73" s="4">
         <v>1</v>
       </c>
       <c r="K73" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L73" s="4">
         <v>1</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -5954,13 +5940,13 @@
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>121</v>
@@ -5972,25 +5958,19 @@
         <v>212</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H74" s="4"/>
       <c r="I74" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J74" s="4">
         <v>1</v>
       </c>
-      <c r="K74" s="4">
-        <v>1</v>
-      </c>
-      <c r="L74" s="4">
-        <v>1</v>
-      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -6010,11 +5990,11 @@
       <c r="A75" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>211</v>
+      <c r="B75" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>121</v>
@@ -6023,7 +6003,7 @@
         <v>2022</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>80</v>
@@ -6062,40 +6042,40 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E76" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I76" s="4">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="J76" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K76" s="4">
         <v>0.75</v>
       </c>
       <c r="L76" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>29</v>
@@ -6116,37 +6096,43 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E77" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H77" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I77" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J77" s="4">
         <v>1</v>
       </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
       <c r="M77" s="4" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -6164,43 +6150,43 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E78" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>221</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I78" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J78" s="4">
         <v>1</v>
       </c>
       <c r="K78" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L78" s="4">
         <v>1</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -6221,16 +6207,16 @@
         <v>222</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E79" s="4">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>223</v>
@@ -6242,19 +6228,19 @@
         <v>28</v>
       </c>
       <c r="I79" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J79" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K79" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L79" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -6275,17 +6261,15 @@
         <v>224</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E80" s="4">
-        <v>2020</v>
-      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
         <v>225</v>
       </c>
@@ -6329,40 +6313,40 @@
         <v>226</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E81" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>227</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I81" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J81" s="4">
         <v>1</v>
       </c>
       <c r="K81" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L81" s="4">
         <v>1</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -6383,40 +6367,40 @@
         <v>228</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E82" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>229</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I82" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J82" s="4">
         <v>1</v>
       </c>
       <c r="K82" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L82" s="4">
         <v>1</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -6433,24 +6417,26 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>220</v>
+      <c r="B83" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4">
+        <v>2021</v>
+      </c>
       <c r="F83" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>28</v>
@@ -6459,16 +6445,16 @@
         <v>1</v>
       </c>
       <c r="J83" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K83" s="4">
         <v>1</v>
       </c>
       <c r="L83" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -6485,14 +6471,14 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>121</v>
@@ -6501,28 +6487,24 @@
         <v>2021</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I84" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J84" s="4">
-        <v>1</v>
-      </c>
-      <c r="K84" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="L84" s="4">
-        <v>1</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -6540,13 +6522,13 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>220</v>
+        <v>236</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>121</v>
@@ -6555,25 +6537,25 @@
         <v>2021</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I85" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J85" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K85" s="4">
+        <v>1</v>
+      </c>
+      <c r="L85" s="4">
         <v>0.75</v>
-      </c>
-      <c r="L85" s="4">
-        <v>1</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>29</v>
@@ -6593,14 +6575,14 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
-        <v>236</v>
+      <c r="A86" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>121</v>
@@ -6612,7 +6594,7 @@
         <v>239</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>28</v>
@@ -6647,14 +6629,14 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>121</v>
@@ -6666,10 +6648,10 @@
         <v>241</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I87" s="4">
         <v>1</v>
@@ -6677,10 +6659,14 @@
       <c r="J87" s="4">
         <v>0.75</v>
       </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0.75</v>
+      </c>
       <c r="M87" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -6701,40 +6687,36 @@
         <v>242</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E88" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>243</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I88" s="4">
         <v>1</v>
       </c>
       <c r="J88" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K88" s="4">
-        <v>1</v>
-      </c>
-      <c r="L88" s="4">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="4" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -6752,43 +6734,39 @@
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E89" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I89" s="4">
         <v>1</v>
       </c>
       <c r="J89" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K89" s="4">
-        <v>1</v>
-      </c>
-      <c r="L89" s="4">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="4" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -6806,43 +6784,39 @@
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E90" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I90" s="4">
         <v>1</v>
       </c>
       <c r="J90" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1</v>
-      </c>
-      <c r="L90" s="4">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="4" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -6860,13 +6834,13 @@
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>121</v>
@@ -6875,7 +6849,7 @@
         <v>2022</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>80</v>
@@ -6892,7 +6866,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -6913,36 +6887,40 @@
         <v>251</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E92" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I92" s="4">
         <v>1</v>
       </c>
       <c r="J92" s="4">
-        <v>1</v>
-      </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0.75</v>
+      </c>
       <c r="M92" s="4" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -6960,25 +6938,25 @@
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E93" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>23</v>
@@ -6992,7 +6970,7 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -7010,39 +6988,43 @@
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E94" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I94" s="4">
         <v>1</v>
       </c>
       <c r="J94" s="4">
-        <v>1</v>
-      </c>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0.75</v>
+      </c>
       <c r="M94" s="4" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -7060,25 +7042,23 @@
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E95" s="4">
-        <v>2021</v>
-      </c>
+      <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
         <v>259</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>28</v>
@@ -7117,25 +7097,23 @@
         <v>260</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E96" s="4">
-        <v>2021</v>
-      </c>
+      <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
         <v>261</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I96" s="4">
         <v>1</v>
@@ -7143,13 +7121,21 @@
       <c r="J96" s="4">
         <v>1</v>
       </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="K96" s="4">
+        <v>1</v>
+      </c>
+      <c r="L96" s="4">
+        <v>1</v>
+      </c>
       <c r="M96" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -7163,26 +7149,26 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>262</v>
+      <c r="A97" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>28</v>
@@ -7200,7 +7186,7 @@
         <v>0.75</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -7217,27 +7203,29 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>264</v>
+      <c r="A98" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E98" s="4"/>
+      <c r="E98" s="4">
+        <v>2021</v>
+      </c>
       <c r="F98" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I98" s="4">
         <v>1</v>
@@ -7245,14 +7233,10 @@
       <c r="J98" s="4">
         <v>0.75</v>
       </c>
-      <c r="K98" s="4">
-        <v>1</v>
-      </c>
-      <c r="L98" s="4">
-        <v>0.75</v>
-      </c>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="4" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -7270,23 +7254,25 @@
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="4">
+        <v>2021</v>
+      </c>
       <c r="F99" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>28</v>
@@ -7295,23 +7281,19 @@
         <v>1</v>
       </c>
       <c r="J99" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K99" s="4">
         <v>1</v>
       </c>
       <c r="L99" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N99" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="O99" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
@@ -7325,26 +7307,26 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E100" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>270</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>28</v>
@@ -7379,14 +7361,14 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="4" t="s">
         <v>271</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>121</v>
@@ -7398,10 +7380,10 @@
         <v>272</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I101" s="4">
         <v>1</v>
@@ -7409,10 +7391,14 @@
       <c r="J101" s="4">
         <v>0.75</v>
       </c>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="K101" s="4">
+        <v>1</v>
+      </c>
+      <c r="L101" s="4">
+        <v>0.75</v>
+      </c>
       <c r="M101" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -7429,14 +7415,14 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>121</v>
@@ -7445,10 +7431,10 @@
         <v>2021</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>28</v>
@@ -7483,29 +7469,29 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
-        <v>275</v>
+      <c r="A103" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E103" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I103" s="4">
         <v>1</v>
@@ -7513,14 +7499,10 @@
       <c r="J103" s="4">
         <v>0.75</v>
       </c>
-      <c r="K103" s="4">
-        <v>1</v>
-      </c>
-      <c r="L103" s="4">
-        <v>0.75</v>
-      </c>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -7538,13 +7520,13 @@
     </row>
     <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>121</v>
@@ -7553,10 +7535,10 @@
         <v>2021</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>28</v>
@@ -7591,14 +7573,14 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="8" t="s">
-        <v>279</v>
+      <c r="A105" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>121</v>
@@ -7610,7 +7592,7 @@
         <v>281</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>28</v>
@@ -7645,14 +7627,14 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>121</v>
@@ -7664,10 +7646,10 @@
         <v>283</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I106" s="4">
         <v>1</v>
@@ -7675,10 +7657,14 @@
       <c r="J106" s="4">
         <v>0.75</v>
       </c>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
+      <c r="K106" s="4">
+        <v>1</v>
+      </c>
+      <c r="L106" s="4">
+        <v>0.75</v>
+      </c>
       <c r="M106" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -7699,22 +7685,22 @@
         <v>284</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E107" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>28</v>
@@ -7723,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K107" s="4">
         <v>1</v>
@@ -7732,7 +7718,7 @@
         <v>0.75</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -7753,22 +7739,22 @@
         <v>286</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="E108" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>149</v>
+        <v>291</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>28</v>
@@ -7777,21 +7763,25 @@
         <v>1</v>
       </c>
       <c r="J108" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K108" s="4">
         <v>1</v>
       </c>
       <c r="L108" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M108" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
+      <c r="P108" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
@@ -7804,43 +7794,43 @@
     </row>
     <row r="109" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="D109" s="4" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="E109" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>149</v>
+        <v>291</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I109" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J109" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K109" s="4">
         <v>0.75</v>
       </c>
-      <c r="K109" s="4">
-        <v>1</v>
-      </c>
       <c r="L109" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -7858,48 +7848,52 @@
     </row>
     <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="E110" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I110" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J110" s="4">
         <v>1</v>
       </c>
       <c r="K110" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L110" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
+      <c r="P110" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
@@ -7912,25 +7906,25 @@
     </row>
     <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E111" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>28</v>
@@ -7939,25 +7933,21 @@
         <v>1</v>
       </c>
       <c r="J111" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K111" s="4">
         <v>1</v>
       </c>
       <c r="L111" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
-      <c r="P111" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q111" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
@@ -7973,42 +7963,40 @@
         <v>298</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E112" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>299</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I112" s="4">
         <v>0.75</v>
       </c>
       <c r="J112" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K112" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L112" s="4">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
       <c r="M112" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N112" s="4"/>
+      <c r="N112" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
@@ -8027,22 +8015,22 @@
         <v>300</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E113" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>301</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>28</v>
@@ -8051,13 +8039,13 @@
         <v>0.5</v>
       </c>
       <c r="J113" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K113" s="4">
         <v>0.5</v>
       </c>
       <c r="L113" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M113" s="4" t="s">
         <v>29</v>
@@ -8082,22 +8070,22 @@
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E114" s="4">
         <v>2019</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>98</v>
@@ -8136,29 +8124,27 @@
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E115" s="4">
         <v>2022</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="H115" s="4"/>
       <c r="I115" s="4">
         <v>0.75</v>
       </c>
@@ -8170,9 +8156,7 @@
       <c r="M115" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N115" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
@@ -8188,25 +8172,25 @@
     </row>
     <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E116" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>28</v>
@@ -8215,13 +8199,13 @@
         <v>0.5</v>
       </c>
       <c r="J116" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K116" s="4">
         <v>0.5</v>
       </c>
       <c r="L116" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M116" s="4" t="s">
         <v>29</v>
@@ -8246,43 +8230,39 @@
     </row>
     <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E117" s="4">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I117" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J117" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K117" s="4">
-        <v>1</v>
-      </c>
-      <c r="L117" s="4">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
       <c r="M117" s="4" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -8300,37 +8280,43 @@
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E118" s="4">
         <v>2022</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H118" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I118" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J118" s="4">
         <v>1</v>
       </c>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="K118" s="4">
+        <v>1</v>
+      </c>
+      <c r="L118" s="4">
+        <v>1</v>
+      </c>
       <c r="M118" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -8348,25 +8334,25 @@
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="D119" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E119" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>28</v>
@@ -8375,25 +8361,21 @@
         <v>0.5</v>
       </c>
       <c r="J119" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K119" s="4">
         <v>0.5</v>
       </c>
       <c r="L119" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
-      <c r="P119" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q119" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
@@ -8406,44 +8388,52 @@
     </row>
     <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E120" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I120" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J120" s="4">
         <v>1</v>
       </c>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="K120" s="4">
+        <v>1</v>
+      </c>
+      <c r="L120" s="4">
+        <v>1</v>
+      </c>
       <c r="M120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
+      <c r="P120" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q120" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
@@ -8456,40 +8446,40 @@
     </row>
     <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E121" s="4">
         <v>2022</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I121" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J121" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K121" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L121" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M121" s="4" t="s">
         <v>29</v>
@@ -8510,43 +8500,43 @@
     </row>
     <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E122" s="4">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I122" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J122" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K122" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L122" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -8564,52 +8554,48 @@
     </row>
     <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E123" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I123" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J123" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K123" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L123" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
-      <c r="P123" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q123" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
       <c r="T123" s="4"/>
@@ -8625,13 +8611,13 @@
         <v>329</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E124" s="4">
         <v>2022</v>
@@ -8646,13 +8632,13 @@
         <v>28</v>
       </c>
       <c r="I124" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J124" s="4">
         <v>0.75</v>
       </c>
       <c r="K124" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L124" s="4">
         <v>0.75</v>
@@ -8679,13 +8665,13 @@
         <v>331</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E125" s="4">
         <v>2022</v>
@@ -8700,16 +8686,16 @@
         <v>28</v>
       </c>
       <c r="I125" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J125" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K125" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L125" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M125" s="4" t="s">
         <v>29</v>
@@ -8733,40 +8719,40 @@
         <v>333</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E126" s="4">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I126" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J126" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K126" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L126" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -8784,47 +8770,43 @@
     </row>
     <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E127" s="4">
         <v>2022</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="H127" s="4"/>
       <c r="I127" s="4">
         <v>1</v>
       </c>
       <c r="J127" s="4">
         <v>0.75</v>
       </c>
-      <c r="K127" s="4">
-        <v>1</v>
-      </c>
-      <c r="L127" s="4">
-        <v>0.75</v>
-      </c>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
       <c r="M127" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
+      <c r="P127" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
@@ -8838,22 +8820,22 @@
     </row>
     <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E128" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>58</v>
@@ -8862,16 +8844,16 @@
         <v>28</v>
       </c>
       <c r="I128" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J128" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K128" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L128" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M128" s="4" t="s">
         <v>29</v>
@@ -8892,43 +8874,37 @@
     </row>
     <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>339</v>
+        <v>501</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E129" s="4">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>341</v>
+        <v>502</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="H129" s="4"/>
       <c r="I129" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J129" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K129" s="4">
-        <v>1</v>
-      </c>
-      <c r="L129" s="4">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
       <c r="M129" s="4" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -8946,43 +8922,47 @@
     </row>
     <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="C130" s="4" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E130" s="4">
         <v>2022</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H130" s="4"/>
+        <v>345</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I130" s="4">
         <v>1</v>
       </c>
       <c r="J130" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1</v>
+      </c>
+      <c r="L130" s="4">
+        <v>0.5</v>
+      </c>
       <c r="M130" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
-      <c r="P130" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="P130" s="4"/>
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
@@ -8996,25 +8976,25 @@
     </row>
     <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E131" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>28</v>
@@ -9023,13 +9003,13 @@
         <v>1</v>
       </c>
       <c r="J131" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="M131" s="4" t="s">
         <v>29</v>
@@ -9050,37 +9030,43 @@
     </row>
     <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>507</v>
+        <v>349</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E132" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>508</v>
+        <v>350</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H132" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I132" s="4">
         <v>1</v>
       </c>
       <c r="J132" s="4">
-        <v>1</v>
-      </c>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1</v>
+      </c>
+      <c r="L132" s="4">
+        <v>0.5</v>
+      </c>
       <c r="M132" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -9098,25 +9084,25 @@
     </row>
     <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E133" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>28</v>
@@ -9152,25 +9138,25 @@
     </row>
     <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E134" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>28</v>
@@ -9209,44 +9195,42 @@
         <v>355</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E135" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I135" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J135" s="4">
         <v>0.5</v>
       </c>
-      <c r="K135" s="4">
-        <v>1</v>
-      </c>
-      <c r="L135" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
       <c r="M135" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
+      <c r="P135" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
@@ -9260,43 +9244,39 @@
     </row>
     <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E136" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>27</v>
+        <v>361</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I136" s="4">
         <v>1</v>
       </c>
       <c r="J136" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K136" s="4">
-        <v>1</v>
-      </c>
-      <c r="L136" s="4">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
       <c r="M136" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -9314,25 +9294,25 @@
     </row>
     <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="C137" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E137" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>27</v>
+        <v>364</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>28</v>
@@ -9354,8 +9334,10 @@
       </c>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
@@ -9368,45 +9350,47 @@
     </row>
     <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E138" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>363</v>
+        <v>27</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I138" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J138" s="4">
         <v>0.5</v>
       </c>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="K138" s="4">
+        <v>1</v>
+      </c>
+      <c r="L138" s="4">
+        <v>0.5</v>
+      </c>
       <c r="M138" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
-      <c r="P138" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
@@ -9420,39 +9404,43 @@
     </row>
     <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E139" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I139" s="4">
         <v>1</v>
       </c>
       <c r="J139" s="4">
-        <v>1</v>
-      </c>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1</v>
+      </c>
+      <c r="L139" s="4">
+        <v>0.5</v>
+      </c>
       <c r="M139" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -9470,25 +9458,25 @@
     </row>
     <row r="140" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="E140" s="4">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>370</v>
+        <v>98</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>28</v>
@@ -9506,14 +9494,12 @@
         <v>0.5</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
       <c r="T140" s="4"/>
@@ -9526,25 +9512,25 @@
     </row>
     <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="D141" s="4" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="E141" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>28</v>
@@ -9562,7 +9548,7 @@
         <v>0.5</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -9580,25 +9566,25 @@
     </row>
     <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="E142" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>28</v>
@@ -9607,19 +9593,23 @@
         <v>1</v>
       </c>
       <c r="J142" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
       </c>
       <c r="L142" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M142" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
+      <c r="N142" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="O142" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
@@ -9634,25 +9624,25 @@
     </row>
     <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E143" s="4">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>98</v>
+        <v>382</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>28</v>
@@ -9661,19 +9651,23 @@
         <v>1</v>
       </c>
       <c r="J143" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
       </c>
       <c r="L143" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="O143" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
@@ -9688,43 +9682,43 @@
     </row>
     <row r="144" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E144" s="4">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I144" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J144" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K144" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L144" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -9742,50 +9736,44 @@
     </row>
     <row r="145" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D145" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E145" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I145" s="4">
+        <v>1</v>
+      </c>
+      <c r="J145" s="4">
+        <v>1</v>
+      </c>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N145" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E145" s="4">
-        <v>2022</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I145" s="4">
-        <v>1</v>
-      </c>
-      <c r="J145" s="4">
-        <v>1</v>
-      </c>
-      <c r="K145" s="4">
-        <v>1</v>
-      </c>
-      <c r="L145" s="4">
-        <v>1</v>
-      </c>
-      <c r="M145" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N145" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="O145" s="4" t="s">
-        <v>385</v>
-      </c>
+      <c r="O145" s="4"/>
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
@@ -9800,50 +9788,40 @@
     </row>
     <row r="146" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>386</v>
+        <v>509</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E146" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>387</v>
+        <v>510</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="H146" s="4"/>
       <c r="I146" s="4">
         <v>1</v>
       </c>
       <c r="J146" s="4">
         <v>1</v>
       </c>
-      <c r="K146" s="4">
-        <v>1</v>
-      </c>
-      <c r="L146" s="4">
-        <v>1</v>
-      </c>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
       <c r="M146" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N146" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="O146" s="4" t="s">
-        <v>385</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
@@ -9858,19 +9836,19 @@
     </row>
     <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="C147" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E147" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>390</v>
@@ -9879,26 +9857,24 @@
         <v>27</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I147" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J147" s="4">
-        <v>1</v>
-      </c>
-      <c r="K147" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L147" s="4">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
       <c r="M147" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
+      <c r="P147" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
@@ -9915,22 +9891,22 @@
         <v>391</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E148" s="4">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>392</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>393</v>
+        <v>27</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>23</v>
@@ -9939,18 +9915,18 @@
         <v>1</v>
       </c>
       <c r="J148" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N148" s="4" t="s">
-        <v>384</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N148" s="4"/>
       <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
+      <c r="P148" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
@@ -9964,37 +9940,41 @@
     </row>
     <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>515</v>
+        <v>393</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E149" s="4">
-        <v>2023</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>516</v>
+        <v>394</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H149" s="4"/>
+        <v>395</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I149" s="4">
         <v>1</v>
       </c>
       <c r="J149" s="4">
         <v>1</v>
       </c>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
+      <c r="K149" s="4">
+        <v>1</v>
+      </c>
+      <c r="L149" s="4">
+        <v>1</v>
+      </c>
       <c r="M149" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
@@ -10012,45 +9992,47 @@
     </row>
     <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E150" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I150" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J150" s="4">
         <v>0.5</v>
       </c>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
+      <c r="K150" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L150" s="4">
+        <v>0.5</v>
+      </c>
       <c r="M150" s="4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
-      <c r="P150" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
@@ -10064,28 +10046,28 @@
     </row>
     <row r="151" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="C151" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E151" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I151" s="4">
         <v>1</v>
@@ -10093,16 +10075,18 @@
       <c r="J151" s="4">
         <v>0.5</v>
       </c>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
+      <c r="K151" s="4">
+        <v>1</v>
+      </c>
+      <c r="L151" s="4">
+        <v>0.5</v>
+      </c>
       <c r="M151" s="4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
-      <c r="P151" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
@@ -10116,26 +10100,28 @@
     </row>
     <row r="152" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E152" s="4"/>
+        <v>372</v>
+      </c>
+      <c r="E152" s="4">
+        <v>2022</v>
+      </c>
       <c r="F152" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>401</v>
+        <v>91</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I152" s="4">
         <v>1</v>
@@ -10143,14 +10129,10 @@
       <c r="J152" s="4">
         <v>1</v>
       </c>
-      <c r="K152" s="4">
-        <v>1</v>
-      </c>
-      <c r="L152" s="4">
-        <v>1</v>
-      </c>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
       <c r="M152" s="4" t="s">
-        <v>29</v>
+        <v>403</v>
       </c>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -10168,22 +10150,22 @@
     </row>
     <row r="153" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E153" s="4">
         <v>2019</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>98</v>
@@ -10192,13 +10174,13 @@
         <v>28</v>
       </c>
       <c r="I153" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J153" s="4">
         <v>0.5</v>
       </c>
       <c r="K153" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L153" s="4">
         <v>0.5</v>
@@ -10222,43 +10204,39 @@
     </row>
     <row r="154" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E154" s="4">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I154" s="4">
         <v>1</v>
       </c>
       <c r="J154" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K154" s="4">
-        <v>1</v>
-      </c>
-      <c r="L154" s="4">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
       <c r="M154" s="4" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -10276,25 +10254,25 @@
     </row>
     <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E155" s="4">
         <v>2022</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>91</v>
+        <v>395</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>23</v>
@@ -10308,7 +10286,7 @@
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4" t="s">
-        <v>409</v>
+        <v>155</v>
       </c>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
@@ -10329,19 +10307,19 @@
         <v>410</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E156" s="4">
         <v>2019</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>98</v>
@@ -10380,39 +10358,43 @@
     </row>
     <row r="157" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="D157" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E157" s="4">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>401</v>
+        <v>98</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I157" s="4">
         <v>1</v>
       </c>
       <c r="J157" s="4">
-        <v>1</v>
-      </c>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K157" s="4">
+        <v>1</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0.5</v>
+      </c>
       <c r="M157" s="4" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
@@ -10430,28 +10412,28 @@
     </row>
     <row r="158" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E158" s="4">
         <v>2022</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I158" s="4">
         <v>1</v>
@@ -10459,10 +10441,14 @@
       <c r="J158" s="4">
         <v>1</v>
       </c>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
+      <c r="K158" s="4">
+        <v>1</v>
+      </c>
+      <c r="L158" s="4">
+        <v>1</v>
+      </c>
       <c r="M158" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
@@ -10480,22 +10466,22 @@
     </row>
     <row r="159" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E159" s="4">
         <v>2019</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>98</v>
@@ -10504,13 +10490,13 @@
         <v>28</v>
       </c>
       <c r="I159" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J159" s="4">
         <v>0.5</v>
       </c>
       <c r="K159" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L159" s="4">
         <v>0.5</v>
@@ -10534,22 +10520,22 @@
     </row>
     <row r="160" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E160" s="4">
         <v>2019</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>98</v>
@@ -10588,28 +10574,28 @@
     </row>
     <row r="161" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E161" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I161" s="4">
         <v>1</v>
@@ -10617,14 +10603,10 @@
       <c r="J161" s="4">
         <v>1</v>
       </c>
-      <c r="K161" s="4">
-        <v>1</v>
-      </c>
-      <c r="L161" s="4">
-        <v>1</v>
-      </c>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
       <c r="M161" s="4" t="s">
-        <v>29</v>
+        <v>403</v>
       </c>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
@@ -10642,45 +10624,43 @@
     </row>
     <row r="162" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E162" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>426</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>98</v>
+        <v>427</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I162" s="4">
+        <v>1</v>
+      </c>
+      <c r="J162" s="4">
         <v>0.75</v>
       </c>
-      <c r="J162" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K162" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L162" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
       <c r="M162" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N162" s="4"/>
+        <v>403</v>
+      </c>
+      <c r="N162" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
@@ -10696,22 +10676,22 @@
     </row>
     <row r="163" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E163" s="4">
         <v>2019</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>98</v>
@@ -10750,28 +10730,28 @@
     </row>
     <row r="164" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E164" s="4">
         <v>2021</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>27</v>
+        <v>395</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I164" s="4">
         <v>1</v>
@@ -10779,10 +10759,14 @@
       <c r="J164" s="4">
         <v>1</v>
       </c>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
+      <c r="K164" s="4">
+        <v>1</v>
+      </c>
+      <c r="L164" s="4">
+        <v>1</v>
+      </c>
       <c r="M164" s="4" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
@@ -10800,43 +10784,45 @@
     </row>
     <row r="165" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E165" s="4">
         <v>2021</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I165" s="4">
         <v>1</v>
       </c>
       <c r="J165" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1</v>
+      </c>
+      <c r="L165" s="4">
+        <v>1</v>
+      </c>
       <c r="M165" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="N165" s="4" t="s">
-        <v>434</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="N165" s="4"/>
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
       <c r="Q165" s="4"/>
@@ -10852,43 +10838,39 @@
     </row>
     <row r="166" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E166" s="4">
+        <v>2023</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E166" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F166" s="4" t="s">
+      <c r="G166" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G166" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="H166" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I166" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J166" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K166" s="4">
-        <v>1</v>
-      </c>
-      <c r="L166" s="4">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
       <c r="M166" s="4" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
@@ -10906,43 +10888,39 @@
     </row>
     <row r="167" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E167" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I167" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J167" s="4">
         <v>1</v>
       </c>
-      <c r="K167" s="4">
-        <v>1</v>
-      </c>
-      <c r="L167" s="4">
-        <v>1</v>
-      </c>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
       <c r="M167" s="4" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
@@ -10960,43 +10938,39 @@
     </row>
     <row r="168" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E168" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>401</v>
+        <v>27</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I168" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J168" s="4">
         <v>1</v>
       </c>
-      <c r="K168" s="4">
-        <v>1</v>
-      </c>
-      <c r="L168" s="4">
-        <v>1</v>
-      </c>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
       <c r="M168" s="4" t="s">
-        <v>29</v>
+        <v>403</v>
       </c>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
@@ -11014,28 +10988,28 @@
     </row>
     <row r="169" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E169" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>442</v>
+        <v>27</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I169" s="4">
         <v>0.75</v>
@@ -11043,13 +11017,21 @@
       <c r="J169" s="4">
         <v>1</v>
       </c>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
+      <c r="K169" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L169" s="4">
+        <v>1</v>
+      </c>
       <c r="M169" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N169" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="O169" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
@@ -11064,39 +11046,43 @@
     </row>
     <row r="170" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E170" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>445</v>
+        <v>27</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I170" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J170" s="4">
         <v>1</v>
       </c>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
+      <c r="K170" s="4">
+        <v>1</v>
+      </c>
+      <c r="L170" s="4">
+        <v>1</v>
+      </c>
       <c r="M170" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
@@ -11114,19 +11100,19 @@
     </row>
     <row r="171" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E171" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>449</v>
@@ -11135,18 +11121,22 @@
         <v>27</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I171" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J171" s="4">
         <v>1</v>
       </c>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
+      <c r="K171" s="4">
+        <v>1</v>
+      </c>
+      <c r="L171" s="4">
+        <v>1</v>
+      </c>
       <c r="M171" s="4" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
@@ -11167,16 +11157,16 @@
         <v>450</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E172" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>451</v>
@@ -11188,13 +11178,13 @@
         <v>28</v>
       </c>
       <c r="I172" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J172" s="4">
         <v>1</v>
       </c>
       <c r="K172" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L172" s="4">
         <v>1</v>
@@ -11203,10 +11193,10 @@
         <v>29</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P172" s="4"/>
       <c r="Q172" s="4"/>
@@ -11225,16 +11215,13 @@
         <v>452</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E173" s="4">
-        <v>2021</v>
+        <v>372</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>453</v>
@@ -11242,26 +11229,15 @@
       <c r="G173" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H173" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I173" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J173" s="4">
         <v>1</v>
       </c>
-      <c r="K173" s="4">
-        <v>1</v>
-      </c>
-      <c r="L173" s="4">
-        <v>1</v>
-      </c>
       <c r="M173" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
+        <v>155</v>
+      </c>
       <c r="P173" s="4"/>
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
@@ -11279,34 +11255,34 @@
         <v>454</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E174" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I174" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J174" s="4">
         <v>1</v>
       </c>
       <c r="K174" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L174" s="4">
         <v>1</v>
@@ -11330,37 +11306,37 @@
     </row>
     <row r="175" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E175" s="4">
         <v>2021</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>27</v>
+        <v>459</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I175" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J175" s="4">
         <v>1</v>
       </c>
       <c r="K175" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L175" s="4">
         <v>1</v>
@@ -11368,11 +11344,9 @@
       <c r="M175" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N175" s="9" t="s">
-        <v>385</v>
-      </c>
+      <c r="N175" s="4"/>
       <c r="O175" s="4" t="s">
-        <v>385</v>
+        <v>70</v>
       </c>
       <c r="P175" s="4"/>
       <c r="Q175" s="4"/>
@@ -11388,31 +11362,49 @@
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2020</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="H176" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="I176" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J176" s="4">
         <v>1</v>
       </c>
+      <c r="K176" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L176" s="4">
+        <v>1</v>
+      </c>
       <c r="M176" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
+      </c>
+      <c r="N176" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O176" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="P176" s="4"/>
       <c r="Q176" s="4"/>
@@ -11428,43 +11420,35 @@
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="E177" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I177" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="J177" s="4">
-        <v>1</v>
-      </c>
-      <c r="K177" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L177" s="4">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
       <c r="M177" s="4" t="s">
-        <v>29</v>
+        <v>463</v>
       </c>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
@@ -11482,48 +11466,38 @@
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>461</v>
-      </c>
       <c r="C178" s="4" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="E178" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I178" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="J178" s="4">
-        <v>1</v>
-      </c>
-      <c r="K178" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L178" s="4">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
       <c r="M178" s="4" t="s">
-        <v>29</v>
+        <v>463</v>
       </c>
       <c r="N178" s="4"/>
-      <c r="O178" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="O178" s="4"/>
       <c r="P178" s="4"/>
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
@@ -11538,50 +11512,38 @@
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="E179" s="4">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I179" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="J179" s="4">
-        <v>1</v>
-      </c>
-      <c r="K179" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L179" s="4">
-        <v>1</v>
-      </c>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
       <c r="M179" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N179" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O179" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
       <c r="P179" s="4"/>
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
@@ -11596,19 +11558,19 @@
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E180" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>470</v>
@@ -11624,7 +11586,7 @@
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
@@ -11645,16 +11607,16 @@
         <v>471</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E181" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>472</v>
@@ -11670,7 +11632,7 @@
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
@@ -11691,16 +11653,16 @@
         <v>473</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E182" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>474</v>
@@ -11716,7 +11678,7 @@
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
       <c r="M182" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
@@ -11737,13 +11699,13 @@
         <v>475</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E183" s="4">
         <v>2022</v>
@@ -11752,7 +11714,7 @@
         <v>476</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>23</v>
@@ -11762,7 +11724,7 @@
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
       <c r="M183" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
@@ -11780,25 +11742,25 @@
     </row>
     <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E184" s="4">
         <v>2022</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>478</v>
+        <v>262</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>23</v>
@@ -11808,7 +11770,7 @@
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -11829,16 +11791,16 @@
         <v>479</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E185" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>480</v>
@@ -11854,7 +11816,7 @@
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
       <c r="M185" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -11871,37 +11833,19 @@
       <c r="Z185" s="4"/>
     </row>
     <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E186" s="4">
-        <v>2022</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="4" t="s">
-        <v>469</v>
-      </c>
+      <c r="M186" s="4"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
       <c r="P186" s="4"/>
@@ -11917,37 +11861,19 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E187" s="4">
-        <v>2022</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="4" t="s">
-        <v>469</v>
-      </c>
+      <c r="M187" s="4"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
@@ -11963,37 +11889,19 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E188" s="4">
-        <v>2023</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="4" t="s">
-        <v>469</v>
-      </c>
+      <c r="M188" s="4"/>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
       <c r="P188" s="4"/>
@@ -34772,92 +34680,8 @@
       <c r="Y1001" s="4"/>
       <c r="Z1001" s="4"/>
     </row>
-    <row r="1002" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1002" s="4"/>
-      <c r="B1002" s="4"/>
-      <c r="C1002" s="4"/>
-      <c r="D1002" s="4"/>
-      <c r="E1002" s="4"/>
-      <c r="F1002" s="4"/>
-      <c r="G1002" s="4"/>
-      <c r="H1002" s="4"/>
-      <c r="I1002" s="4"/>
-      <c r="J1002" s="4"/>
-      <c r="K1002" s="4"/>
-      <c r="L1002" s="4"/>
-      <c r="M1002" s="4"/>
-      <c r="N1002" s="4"/>
-      <c r="O1002" s="4"/>
-      <c r="P1002" s="4"/>
-      <c r="Q1002" s="4"/>
-      <c r="R1002" s="4"/>
-      <c r="S1002" s="4"/>
-      <c r="T1002" s="4"/>
-      <c r="U1002" s="4"/>
-      <c r="V1002" s="4"/>
-      <c r="W1002" s="4"/>
-      <c r="X1002" s="4"/>
-      <c r="Y1002" s="4"/>
-      <c r="Z1002" s="4"/>
-    </row>
-    <row r="1003" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1003" s="4"/>
-      <c r="B1003" s="4"/>
-      <c r="C1003" s="4"/>
-      <c r="D1003" s="4"/>
-      <c r="E1003" s="4"/>
-      <c r="F1003" s="4"/>
-      <c r="G1003" s="4"/>
-      <c r="H1003" s="4"/>
-      <c r="I1003" s="4"/>
-      <c r="J1003" s="4"/>
-      <c r="K1003" s="4"/>
-      <c r="L1003" s="4"/>
-      <c r="M1003" s="4"/>
-      <c r="N1003" s="4"/>
-      <c r="O1003" s="4"/>
-      <c r="P1003" s="4"/>
-      <c r="Q1003" s="4"/>
-      <c r="R1003" s="4"/>
-      <c r="S1003" s="4"/>
-      <c r="T1003" s="4"/>
-      <c r="U1003" s="4"/>
-      <c r="V1003" s="4"/>
-      <c r="W1003" s="4"/>
-      <c r="X1003" s="4"/>
-      <c r="Y1003" s="4"/>
-      <c r="Z1003" s="4"/>
-    </row>
-    <row r="1004" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1004" s="4"/>
-      <c r="B1004" s="4"/>
-      <c r="C1004" s="4"/>
-      <c r="D1004" s="4"/>
-      <c r="E1004" s="4"/>
-      <c r="F1004" s="4"/>
-      <c r="G1004" s="4"/>
-      <c r="H1004" s="4"/>
-      <c r="I1004" s="4"/>
-      <c r="J1004" s="4"/>
-      <c r="K1004" s="4"/>
-      <c r="L1004" s="4"/>
-      <c r="M1004" s="4"/>
-      <c r="N1004" s="4"/>
-      <c r="O1004" s="4"/>
-      <c r="P1004" s="4"/>
-      <c r="Q1004" s="4"/>
-      <c r="R1004" s="4"/>
-      <c r="S1004" s="4"/>
-      <c r="T1004" s="4"/>
-      <c r="U1004" s="4"/>
-      <c r="V1004" s="4"/>
-      <c r="W1004" s="4"/>
-      <c r="X1004" s="4"/>
-      <c r="Y1004" s="4"/>
-      <c r="Z1004" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q184" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -34889,10 +34713,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -34900,10 +34724,10 @@
         <v>121</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -34917,10 +34741,10 @@
         <v>121</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -34934,10 +34758,10 @@
         <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -34951,10 +34775,10 @@
         <v>121</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -34968,10 +34792,10 @@
         <v>121</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -34985,10 +34809,10 @@
         <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -35002,10 +34826,10 @@
         <v>121</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -35019,10 +34843,10 @@
         <v>121</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -35036,10 +34860,10 @@
         <v>121</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -35053,10 +34877,10 @@
         <v>121</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -35070,10 +34894,10 @@
         <v>121</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -35087,7 +34911,7 @@
         <v>121</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>131</v>
@@ -35101,13 +34925,13 @@
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -35118,13 +34942,13 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -35135,13 +34959,13 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -35152,13 +34976,13 @@
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -35169,13 +34993,13 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -35186,13 +35010,13 @@
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -35203,13 +35027,13 @@
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -35220,13 +35044,13 @@
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -35237,13 +35061,13 @@
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -35254,13 +35078,13 @@
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -35271,13 +35095,13 @@
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D24" s="6">
         <v>0.75</v>
@@ -35288,13 +35112,13 @@
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -35305,13 +35129,13 @@
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -35322,13 +35146,13 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D27" s="6">
         <v>1.25</v>
@@ -35464,7 +35288,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -36479,10 +36303,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -36490,7 +36314,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C2" s="6">
         <v>0.5</v>
@@ -36504,7 +36328,7 @@
         <v>121</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -36518,7 +36342,7 @@
         <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -36532,7 +36356,7 @@
         <v>121</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C5" s="6">
         <v>1.25</v>
@@ -36543,10 +36367,10 @@
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -36557,10 +36381,10 @@
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -36571,10 +36395,10 @@
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C8" s="6">
         <v>0.75</v>
@@ -36585,10 +36409,10 @@
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -36599,10 +36423,10 @@
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C10" s="6">
         <v>0.5</v>
@@ -36613,10 +36437,10 @@
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -37676,7 +37500,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -37689,7 +37513,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -37697,7 +37521,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>

--- a/DII 4.0 Evolution Rebuild 240604.xlsx
+++ b/DII 4.0 Evolution Rebuild 240604.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xniu02\Desktop\DII 4.0 Index Construction 240319\DII 4.0 Index Construction 240610 - all updates - git - full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4832F7-0C7D-4837-B3CE-A0C3C913CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECD7D2F-DBBB-40B2-BB35-B7B02F3659D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="-15345" windowWidth="27795" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="-15360" windowWidth="23595" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndicatorInfo" sheetId="1" r:id="rId1"/>
@@ -1001,9 +1001,6 @@
     <t>crime</t>
   </si>
   <si>
-    <t>Bureaucracy</t>
-  </si>
-  <si>
     <t>Tax revenues as a share of GDP</t>
   </si>
   <si>
@@ -1412,9 +1409,6 @@
     <t>Value Capture</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>ict_serv_expo</t>
   </si>
   <si>
@@ -1617,6 +1611,12 @@
   </si>
   <si>
     <t>vc_ai_compute</t>
+  </si>
+  <si>
+    <t>Outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bureaucratic Efficiency </t>
   </si>
 </sst>
 </file>
@@ -1961,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>93</v>
@@ -3463,7 +3463,7 @@
         <v>2023</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>91</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>93</v>
@@ -3665,7 +3665,7 @@
         <v>2023</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>91</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>93</v>
@@ -3767,7 +3767,7 @@
         <v>2023</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>91</v>
@@ -8124,10 +8124,10 @@
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>305</v>
+        <v>510</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>288</v>
@@ -8139,10 +8139,10 @@
         <v>2022</v>
       </c>
       <c r="F115" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G115" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4">
@@ -8172,10 +8172,10 @@
     </row>
     <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>305</v>
+        <v>510</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>288</v>
@@ -8187,7 +8187,7 @@
         <v>2020</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>291</v>
@@ -8230,10 +8230,10 @@
     </row>
     <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>305</v>
+        <v>510</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>288</v>
@@ -8245,7 +8245,7 @@
         <v>2023</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>91</v>
@@ -8280,13 +8280,13 @@
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>289</v>
@@ -8295,7 +8295,7 @@
         <v>2022</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>75</v>
@@ -8334,13 +8334,13 @@
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>289</v>
@@ -8349,7 +8349,7 @@
         <v>2019</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>98</v>
@@ -8388,13 +8388,13 @@
     </row>
     <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="C120" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>289</v>
@@ -8403,10 +8403,10 @@
         <v>2021</v>
       </c>
       <c r="F120" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>23</v>
@@ -8446,13 +8446,13 @@
     </row>
     <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>289</v>
@@ -8461,7 +8461,7 @@
         <v>2022</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>58</v>
@@ -8500,13 +8500,13 @@
     </row>
     <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>289</v>
@@ -8515,7 +8515,7 @@
         <v>2022</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>58</v>
@@ -8554,13 +8554,13 @@
     </row>
     <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>289</v>
@@ -8569,7 +8569,7 @@
         <v>2022</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>58</v>
@@ -8608,13 +8608,13 @@
     </row>
     <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>289</v>
@@ -8623,7 +8623,7 @@
         <v>2022</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>58</v>
@@ -8662,13 +8662,13 @@
     </row>
     <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>289</v>
@@ -8677,7 +8677,7 @@
         <v>2022</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>58</v>
@@ -8716,13 +8716,13 @@
     </row>
     <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="C126" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>289</v>
@@ -8731,7 +8731,7 @@
         <v>2019</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>98</v>
@@ -8770,13 +8770,13 @@
     </row>
     <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>289</v>
@@ -8785,10 +8785,10 @@
         <v>2022</v>
       </c>
       <c r="F127" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4">
@@ -8820,13 +8820,13 @@
     </row>
     <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>289</v>
@@ -8835,7 +8835,7 @@
         <v>2020</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>58</v>
@@ -8874,13 +8874,13 @@
     </row>
     <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>289</v>
@@ -8889,10 +8889,10 @@
         <v>2022</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4">
@@ -8922,13 +8922,13 @@
     </row>
     <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>289</v>
@@ -8937,10 +8937,10 @@
         <v>2022</v>
       </c>
       <c r="F130" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G130" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>28</v>
@@ -8976,13 +8976,13 @@
     </row>
     <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>289</v>
@@ -8991,10 +8991,10 @@
         <v>2022</v>
       </c>
       <c r="F131" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G131" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>28</v>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>289</v>
@@ -9045,7 +9045,7 @@
         <v>2021</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>27</v>
@@ -9084,13 +9084,13 @@
     </row>
     <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>289</v>
@@ -9099,7 +9099,7 @@
         <v>2021</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>27</v>
@@ -9138,13 +9138,13 @@
     </row>
     <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>289</v>
@@ -9153,7 +9153,7 @@
         <v>2021</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>27</v>
@@ -9192,13 +9192,13 @@
     </row>
     <row r="135" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>289</v>
@@ -9207,10 +9207,10 @@
         <v>2023</v>
       </c>
       <c r="F135" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G135" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>23</v>
@@ -9244,13 +9244,13 @@
     </row>
     <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="C136" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>289</v>
@@ -9259,10 +9259,10 @@
         <v>2020</v>
       </c>
       <c r="F136" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G136" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>23</v>
@@ -9294,13 +9294,13 @@
     </row>
     <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>289</v>
@@ -9309,10 +9309,10 @@
         <v>2022</v>
       </c>
       <c r="F137" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G137" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
     </row>
     <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>289</v>
@@ -9365,7 +9365,7 @@
         <v>2021</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>27</v>
@@ -9404,13 +9404,13 @@
     </row>
     <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>289</v>
@@ -9419,7 +9419,7 @@
         <v>2021</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>27</v>
@@ -9458,22 +9458,22 @@
     </row>
     <row r="140" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E140" s="4">
         <v>2019</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>98</v>
@@ -9512,22 +9512,22 @@
     </row>
     <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E141" s="4">
         <v>2019</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>98</v>
@@ -9566,22 +9566,22 @@
     </row>
     <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="D142" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E142" s="4">
         <v>2022</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>80</v>
@@ -9605,10 +9605,10 @@
         <v>29</v>
       </c>
       <c r="N142" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="O142" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="O142" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
@@ -9624,25 +9624,25 @@
     </row>
     <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E143" s="4">
         <v>2022</v>
       </c>
       <c r="F143" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G143" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>28</v>
@@ -9663,10 +9663,10 @@
         <v>29</v>
       </c>
       <c r="N143" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="O143" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="O143" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
@@ -9682,22 +9682,22 @@
     </row>
     <row r="144" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E144" s="4">
         <v>2022</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>27</v>
@@ -9736,25 +9736,25 @@
     </row>
     <row r="145" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="D145" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E145" s="4">
         <v>2023</v>
       </c>
       <c r="F145" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G145" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>23</v>
@@ -9771,7 +9771,7 @@
         <v>155</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
@@ -9788,25 +9788,25 @@
     </row>
     <row r="146" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="D146" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E146" s="4">
         <v>2023</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4">
@@ -9836,22 +9836,22 @@
     </row>
     <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="C147" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E147" s="4">
         <v>2020</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>27</v>
@@ -9888,22 +9888,22 @@
     </row>
     <row r="148" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E148" s="4">
         <v>2020</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>27</v>
@@ -9940,23 +9940,23 @@
     </row>
     <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>28</v>
@@ -9992,22 +9992,22 @@
     </row>
     <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="C150" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E150" s="4">
         <v>2019</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>98</v>
@@ -10046,22 +10046,22 @@
     </row>
     <row r="151" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E151" s="4">
         <v>2019</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>98</v>
@@ -10100,22 +10100,22 @@
     </row>
     <row r="152" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C152" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E152" s="4">
         <v>2022</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>91</v>
@@ -10132,7 +10132,7 @@
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -10150,22 +10150,22 @@
     </row>
     <row r="153" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C153" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E153" s="4">
         <v>2019</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>98</v>
@@ -10204,25 +10204,25 @@
     </row>
     <row r="154" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E154" s="4">
         <v>2022</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>23</v>
@@ -10254,25 +10254,25 @@
     </row>
     <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C155" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="E155" s="4">
         <v>2022</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>23</v>
@@ -10304,22 +10304,22 @@
     </row>
     <row r="156" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="D156" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E156" s="4">
         <v>2019</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>98</v>
@@ -10358,22 +10358,22 @@
     </row>
     <row r="157" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="D157" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E157" s="4">
         <v>2019</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>98</v>
@@ -10412,22 +10412,22 @@
     </row>
     <row r="158" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="D158" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E158" s="4">
         <v>2022</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>80</v>
@@ -10466,22 +10466,22 @@
     </row>
     <row r="159" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="C159" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E159" s="4">
         <v>2019</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>98</v>
@@ -10520,22 +10520,22 @@
     </row>
     <row r="160" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E160" s="4">
         <v>2019</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>98</v>
@@ -10574,22 +10574,22 @@
     </row>
     <row r="161" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E161" s="4">
         <v>2021</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>27</v>
@@ -10606,7 +10606,7 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
@@ -10624,25 +10624,25 @@
     </row>
     <row r="162" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E162" s="4">
         <v>2021</v>
       </c>
       <c r="F162" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G162" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>23</v>
@@ -10656,10 +10656,10 @@
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
       <c r="M162" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
@@ -10676,22 +10676,22 @@
     </row>
     <row r="163" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E163" s="4">
         <v>2019</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>98</v>
@@ -10730,25 +10730,25 @@
     </row>
     <row r="164" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E164" s="4">
         <v>2021</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>28</v>
@@ -10784,25 +10784,25 @@
     </row>
     <row r="165" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E165" s="4">
         <v>2021</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>28</v>
@@ -10838,25 +10838,25 @@
     </row>
     <row r="166" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E166" s="4">
         <v>2023</v>
       </c>
       <c r="F166" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G166" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>23</v>
@@ -10888,25 +10888,25 @@
     </row>
     <row r="167" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E167" s="4">
         <v>2022</v>
       </c>
       <c r="F167" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G167" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>23</v>
@@ -10938,22 +10938,22 @@
     </row>
     <row r="168" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="C168" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E168" s="4">
         <v>2022</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>27</v>
@@ -10970,7 +10970,7 @@
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
       <c r="M168" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
@@ -10988,22 +10988,22 @@
     </row>
     <row r="169" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E169" s="4">
         <v>2022</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>27</v>
@@ -11027,10 +11027,10 @@
         <v>29</v>
       </c>
       <c r="N169" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O169" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
@@ -11046,22 +11046,22 @@
     </row>
     <row r="170" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E170" s="4">
         <v>2021</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>27</v>
@@ -11100,22 +11100,22 @@
     </row>
     <row r="171" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E171" s="4">
         <v>2021</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>27</v>
@@ -11154,22 +11154,22 @@
     </row>
     <row r="172" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E172" s="4">
         <v>2021</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>27</v>
@@ -11193,10 +11193,10 @@
         <v>29</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P172" s="4"/>
       <c r="Q172" s="4"/>
@@ -11212,19 +11212,19 @@
     </row>
     <row r="173" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>27</v>
@@ -11252,22 +11252,22 @@
     </row>
     <row r="174" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E174" s="4">
         <v>2022</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>41</v>
@@ -11306,25 +11306,25 @@
     </row>
     <row r="175" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E175" s="4">
         <v>2021</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>28</v>
@@ -11362,22 +11362,22 @@
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E176" s="4">
         <v>2020</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>27</v>
@@ -11420,22 +11420,22 @@
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E177" s="4">
         <v>2023</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>80</v>
@@ -11448,7 +11448,7 @@
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
@@ -11466,22 +11466,22 @@
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E178" s="4">
         <v>2023</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>80</v>
@@ -11494,7 +11494,7 @@
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
@@ -11512,22 +11512,22 @@
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E179" s="4">
         <v>2023</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>80</v>
@@ -11540,7 +11540,7 @@
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
       <c r="M179" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
@@ -11558,22 +11558,22 @@
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E180" s="4">
         <v>2022</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>80</v>
@@ -11586,7 +11586,7 @@
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
@@ -11604,22 +11604,22 @@
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E181" s="4">
         <v>2022</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>80</v>
@@ -11632,7 +11632,7 @@
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
@@ -11650,22 +11650,22 @@
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E182" s="4">
         <v>2022</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>80</v>
@@ -11678,7 +11678,7 @@
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
       <c r="M182" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
@@ -11696,25 +11696,25 @@
     </row>
     <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E183" s="4">
         <v>2022</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>23</v>
@@ -11724,7 +11724,7 @@
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
       <c r="M183" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
@@ -11742,16 +11742,16 @@
     </row>
     <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E184" s="4">
         <v>2022</v>
@@ -11770,7 +11770,7 @@
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -11788,22 +11788,22 @@
     </row>
     <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E185" s="4">
         <v>2023</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>80</v>
@@ -11816,7 +11816,7 @@
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
       <c r="M185" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -34692,7 +34692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -34713,10 +34715,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -34724,7 +34726,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>191</v>
@@ -34741,7 +34743,7 @@
         <v>121</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>205</v>
@@ -34758,7 +34760,7 @@
         <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>214</v>
@@ -34846,7 +34848,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -34863,7 +34865,7 @@
         <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -34877,7 +34879,7 @@
         <v>121</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>136</v>
@@ -34894,10 +34896,10 @@
         <v>121</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -34911,7 +34913,7 @@
         <v>121</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>131</v>
@@ -34925,13 +34927,13 @@
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -34942,13 +34944,13 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -34959,13 +34961,13 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -34976,13 +34978,13 @@
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>442</v>
+        <v>371</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -34993,13 +34995,13 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>442</v>
+        <v>371</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -35010,13 +35012,13 @@
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -35027,13 +35029,13 @@
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -35047,10 +35049,10 @@
         <v>289</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -35064,10 +35066,10 @@
         <v>289</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -35081,10 +35083,10 @@
         <v>289</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>305</v>
+        <v>489</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -35098,10 +35100,10 @@
         <v>289</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D24" s="6">
         <v>0.75</v>
@@ -35115,10 +35117,10 @@
         <v>289</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -35132,10 +35134,10 @@
         <v>289</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -35149,10 +35151,10 @@
         <v>289</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D27" s="6">
         <v>1.25</v>
@@ -35288,7 +35290,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -36288,11 +36290,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -36303,10 +36309,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -36314,7 +36320,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C2" s="6">
         <v>0.5</v>
@@ -36356,7 +36362,7 @@
         <v>121</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C5" s="6">
         <v>1.25</v>
@@ -36367,10 +36373,10 @@
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -36381,10 +36387,10 @@
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>442</v>
+        <v>371</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -36395,10 +36401,10 @@
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C8" s="6">
         <v>0.75</v>
@@ -36412,7 +36418,7 @@
         <v>289</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -36426,7 +36432,7 @@
         <v>289</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C10" s="6">
         <v>0.5</v>
@@ -36440,7 +36446,7 @@
         <v>289</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -37500,7 +37506,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -37513,7 +37519,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
